--- a/pred_ohlcv/54_21/2020-01-24 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 DAC ohlcv.xlsx
@@ -6788,7 +6788,7 @@
         <v>-864283.6287</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-903878.1574</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-943556.987</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-895852.3602999999</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-832227.595</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-832227.595</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-786802.5832</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-809617.5222</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-749048.0987</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-799243.6074</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-848072.015</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-807103.395</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-874981.5472</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-874981.5472</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-832921.5979000001</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-958151.2427000001</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-934405.8938000001</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-905477.8997000001</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-938101.2641</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-727565.5074999998</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-571239.7233468748</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-614296.1768802082</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-612210.8824135415</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-649945.8533135415</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-636774.3761135414</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-595489.1612135414</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-848932.4512135413</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-751407.1800135414</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-709320.6163135413</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-826497.0296135413</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-812608.2126135413</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-986879.7798135411</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-838206.7551135411</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-856274.5891135412</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-816478.5075135411</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-772857.5112135411</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-804843.8152135412</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1521845.175113541</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1119656.206513541</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-630479.2044135411</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-5112220.034789964</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-5180868.302989963</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-5160165.217989963</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-5217787.570689963</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-5167664.842589963</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-5167664.842589963</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-5167664.842589963</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-5234169.495889964</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-5152443.408889963</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-5113647.091789964</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-5133221.301989963</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-5007114.446689963</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-4204240.771289963</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1531736.971231305</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-1034636.855131305</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-208061.9966474343</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-511849.8780474343</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-577563.9289474343</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>120020.2334375038</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>129790.2939375038</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-482156.3738624962</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1816971.972262496</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-1576353.057962496</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-1478998.930862496</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-1547227.437062496</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-1249692.537862496</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-2909524.17414873</v>
       </c>
       <c r="H1230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-2971522.934748731</v>
       </c>
       <c r="H1234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-2922103.220148731</v>
       </c>
       <c r="H1235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-2955736.747148731</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-3063445.534348731</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-3035785.392748731</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-2989592.274748731</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-3020068.786248731</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-3300813.055848731</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-3240428.559948731</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-3172683.215848731</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-3136328.662848731</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-3136328.662848731</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 DAC ohlcv.xlsx
@@ -6606,7 +6606,7 @@
         <v>-937504.1318999999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-891026.6614999999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-903878.1574</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-943556.987</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-895852.3602999999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-832227.595</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-832227.595</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-772272.6309999999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-789248.8372</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-739493.5669</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-774558.3743</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-824109.1239</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-786802.5832</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-809617.5222</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-749048.0987</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-799243.6074</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-848072.015</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-807103.395</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-829381.9797</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-874981.5472</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-874981.5472</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-874981.5472</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-832921.5979000001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-884448.4883000001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-958151.2427000001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-934405.8938000001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-984848.6021</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-944902.3740000001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-905477.8997000001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-960268.7146000001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-932271.2586000001</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-883228.7497</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-911064.8365000001</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-890451.4346</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-659148.1405135415</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-659148.1405135415</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-601490.1184135415</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-601490.1184135415</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-636774.3761135414</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-613568.3527135414</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-613568.3527135414</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-565938.5577135413</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-565938.5577135413</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-594997.3203135413</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-594997.3203135413</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-559063.4074135413</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-603322.6399135414</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-561429.7126135414</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-561429.7126135414</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-561429.7126135414</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-622344.7237135414</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-583576.1038135414</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-583576.1038135414</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-619945.0316135413</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-620575.0316135413</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-736170.3358135413</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-767273.9135135413</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-848932.4512135413</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-751407.1800135414</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-709320.6163135413</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-826497.0296135413</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-812608.2126135413</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-877185.2472135413</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-827348.9600135413</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-866583.0743135413</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-883205.2550135413</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-829583.5666135413</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-860547.9496135414</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-860547.9496135414</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-901875.2707135414</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-867716.6923135414</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-886502.6817135414</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-836526.4832135413</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-790163.1282135413</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-849947.4093135414</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-805032.6331135414</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-847027.4560135414</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-818499.4583135415</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-777810.5734135415</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-871849.4691135415</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-789465.9758135416</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-734227.4750135415</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-986879.7798135411</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-838206.7551135411</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-856274.5891135412</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-816478.5075135411</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-1521845.175113541</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1119656.206513541</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-630479.2044135411</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-518093.3686135411</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>204466.2387100362</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-5028673.913889963</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-4984479.872789963</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-4966709.503089963</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-5016048.497889964</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-5069154.373489964</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-4204240.771289963</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-4203991.771289963</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-4240115.132289963</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-4211981.422889963</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-987083.6735313053</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-1531736.971231305</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-1104131.661731305</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-1034636.855131305</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-208061.9966474343</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-577563.9289474343</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>717890.0517525657</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>46326.07835256564</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>120020.2334375038</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>129790.2939375038</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-482156.3738624962</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-1816971.972262496</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-1576353.057962496</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-1478998.930862496</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-1547227.437062496</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-1249692.537862496</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-1037073.296562496</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -32372,7 +32372,7 @@
         <v>-2909524.17414873</v>
       </c>
       <c r="H1230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-2950010.531548731</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-2971522.934748731</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-2922103.220148731</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-2955736.747148731</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-3063445.534348731</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-3035785.392748731</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-2989592.274748731</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-3020068.786248731</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-3300813.055848731</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-3240428.559948731</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-3172683.215848731</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-3136328.662848731</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-3136328.662848731</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
